--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3623.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3623.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.252966132182622</v>
+        <v>1.751760721206665</v>
       </c>
       <c r="B1">
-        <v>2.168447050929359</v>
+        <v>2.644430875778198</v>
       </c>
       <c r="C1">
-        <v>2.799826275247889</v>
+        <v>3.271781206130981</v>
       </c>
       <c r="D1">
-        <v>3.179037826291134</v>
+        <v>1.248926401138306</v>
       </c>
       <c r="E1">
-        <v>1.573179943037552</v>
+        <v>0.8306245803833008</v>
       </c>
     </row>
   </sheetData>
